--- a/gears_db/data/outputs/test_nigeria18.xlsx
+++ b/gears_db/data/outputs/test_nigeria18.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kerosene-type jet fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110_Passenger air transport_5110_Passenger air transport</t>
   </si>
   <si>
     <t xml:space="preserve">Liquefied petroleum gas (lpg)</t>
@@ -2447,7 +2450,7 @@
         <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -2482,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -2517,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -2546,7 +2549,7 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" t="s">
         <v>23</v>
@@ -2581,7 +2584,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
@@ -2616,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -2651,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
@@ -2686,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
@@ -2721,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" t="s">
         <v>20</v>
@@ -2756,7 +2759,7 @@
         <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -2791,7 +2794,7 @@
         <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -2826,7 +2829,7 @@
         <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
@@ -2861,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
@@ -2896,7 +2899,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
@@ -2931,7 +2934,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
@@ -2966,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
@@ -3001,7 +3004,7 @@
         <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
@@ -3036,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -3071,7 +3074,7 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
@@ -3106,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -3141,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
@@ -3176,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
         <v>23</v>
@@ -3211,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
         <v>17</v>
@@ -3246,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
@@ -3278,16 +3281,16 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
         <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
       </c>
       <c r="H71" t="s">
         <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
@@ -3313,16 +3316,16 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
         <v>35</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
@@ -3348,16 +3351,16 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s">
         <v>35</v>
       </c>
-      <c r="G73" t="s">
-        <v>34</v>
-      </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
@@ -3383,16 +3386,16 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H74" t="s">
         <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
@@ -3418,16 +3421,16 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J75" t="s">
         <v>19</v>
@@ -3453,16 +3456,16 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J76" t="s">
         <v>19</v>
@@ -3491,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77" t="s">
         <v>23</v>
@@ -3526,7 +3529,7 @@
         <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
@@ -3561,7 +3564,7 @@
         <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
@@ -3593,16 +3596,16 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80" t="s">
         <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s">
         <v>19</v>
@@ -3628,16 +3631,16 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s">
         <v>19</v>
@@ -3663,16 +3666,16 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82" t="s">
         <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J82" t="s">
         <v>19</v>
@@ -3698,16 +3701,16 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
         <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s">
         <v>19</v>
@@ -3733,16 +3736,16 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J84" t="s">
         <v>19</v>
@@ -3768,16 +3771,16 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J85" t="s">
         <v>19</v>
@@ -3803,10 +3806,10 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86" t="s">
         <v>23</v>
@@ -3838,10 +3841,10 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
@@ -3873,10 +3876,10 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
@@ -3911,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
@@ -3946,7 +3949,7 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
@@ -3981,7 +3984,7 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
@@ -4016,7 +4019,7 @@
         <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H92" t="s">
         <v>23</v>
@@ -4051,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93" t="s">
         <v>17</v>
@@ -4086,7 +4089,7 @@
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H94" t="s">
         <v>20</v>
@@ -4121,7 +4124,7 @@
         <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
         <v>23</v>
@@ -4156,7 +4159,7 @@
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
         <v>17</v>
@@ -4191,7 +4194,7 @@
         <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
         <v>20</v>
@@ -4217,22 +4220,22 @@
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H98" t="s">
         <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -4252,22 +4255,22 @@
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s">
         <v>50</v>
-      </c>
-      <c r="I99" t="s">
-        <v>49</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -4287,22 +4290,22 @@
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
@@ -4322,22 +4325,22 @@
         <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H101" t="s">
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
@@ -4357,22 +4360,22 @@
         <v>2018</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H102" t="s">
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
@@ -4392,22 +4395,22 @@
         <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -4427,22 +4430,22 @@
         <v>2018</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s">
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -4462,22 +4465,22 @@
         <v>2018</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H105" t="s">
         <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
@@ -4497,22 +4500,22 @@
         <v>2018</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H106" t="s">
         <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
@@ -4532,22 +4535,22 @@
         <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H107" t="s">
         <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
@@ -4567,22 +4570,22 @@
         <v>2018</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H108" t="s">
         <v>23</v>
       </c>
       <c r="I108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -4602,22 +4605,22 @@
         <v>2018</v>
       </c>
       <c r="D109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H109" t="s">
         <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
@@ -4637,22 +4640,22 @@
         <v>2018</v>
       </c>
       <c r="D110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -4672,22 +4675,22 @@
         <v>2018</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H111" t="s">
         <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
@@ -4707,22 +4710,22 @@
         <v>2018</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112" t="s">
         <v>70</v>
-      </c>
-      <c r="I112" t="s">
-        <v>69</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
@@ -4740,22 +4743,22 @@
         <v>2018</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H113" t="s">
         <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J113" t="s">
         <v>19</v>
@@ -4775,22 +4778,22 @@
         <v>2018</v>
       </c>
       <c r="D114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H114" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J114" t="s">
         <v>19</v>
@@ -4810,22 +4813,22 @@
         <v>2018</v>
       </c>
       <c r="D115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H115" t="s">
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J115" t="s">
         <v>19</v>
@@ -4845,22 +4848,22 @@
         <v>2018</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s">
         <v>81</v>
-      </c>
-      <c r="I116" t="s">
-        <v>80</v>
       </c>
       <c r="J116" t="s">
         <v>19</v>
@@ -4880,22 +4883,22 @@
         <v>2018</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J117" t="s">
         <v>19</v>
@@ -4915,22 +4918,22 @@
         <v>2018</v>
       </c>
       <c r="D118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E118" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J118" t="s">
         <v>19</v>
@@ -4950,22 +4953,22 @@
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J119" t="s">
         <v>19</v>
@@ -4985,22 +4988,22 @@
         <v>2018</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -5020,22 +5023,22 @@
         <v>2018</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F121" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -5055,22 +5058,22 @@
         <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E122" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F122" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -5090,22 +5093,22 @@
         <v>2018</v>
       </c>
       <c r="D123" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
       </c>
       <c r="I123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -5125,22 +5128,22 @@
         <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -5160,22 +5163,22 @@
         <v>2018</v>
       </c>
       <c r="D125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F125" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -5195,22 +5198,22 @@
         <v>2018</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
@@ -5230,22 +5233,22 @@
         <v>2018</v>
       </c>
       <c r="D127" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F127" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J127" t="s">
         <v>19</v>
@@ -5265,22 +5268,22 @@
         <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F128" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
       </c>
       <c r="I128" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J128" t="s">
         <v>19</v>
@@ -5300,22 +5303,22 @@
         <v>2018</v>
       </c>
       <c r="D129" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E129" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F129" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H129" t="s">
         <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s">
         <v>19</v>
@@ -5335,22 +5338,22 @@
         <v>2018</v>
       </c>
       <c r="D130" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E130" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F130" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H130" t="s">
         <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J130" t="s">
         <v>19</v>
@@ -5370,22 +5373,22 @@
         <v>2018</v>
       </c>
       <c r="D131" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F131" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H131" t="s">
         <v>20</v>
       </c>
       <c r="I131" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J131" t="s">
         <v>19</v>
@@ -5405,22 +5408,22 @@
         <v>2018</v>
       </c>
       <c r="D132" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E132" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F132" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
       </c>
       <c r="I132" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J132" t="s">
         <v>19</v>
@@ -5440,22 +5443,22 @@
         <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F133" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
       </c>
       <c r="I133" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J133" t="s">
         <v>19</v>
@@ -5475,22 +5478,22 @@
         <v>2018</v>
       </c>
       <c r="D134" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F134" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H134" t="s">
         <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J134" t="s">
         <v>19</v>
@@ -5510,22 +5513,22 @@
         <v>2018</v>
       </c>
       <c r="D135" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" t="s">
+        <v>97</v>
+      </c>
+      <c r="F135" t="s">
+        <v>86</v>
+      </c>
+      <c r="G135" t="s">
+        <v>49</v>
+      </c>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" t="s">
         <v>95</v>
-      </c>
-      <c r="E135" t="s">
-        <v>96</v>
-      </c>
-      <c r="F135" t="s">
-        <v>85</v>
-      </c>
-      <c r="G135" t="s">
-        <v>48</v>
-      </c>
-      <c r="H135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I135" t="s">
-        <v>94</v>
       </c>
       <c r="J135" t="s">
         <v>19</v>
@@ -5545,22 +5548,22 @@
         <v>2018</v>
       </c>
       <c r="D136" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E136" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F136" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H136" t="s">
         <v>20</v>
       </c>
       <c r="I136" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J136" t="s">
         <v>19</v>
@@ -5580,22 +5583,22 @@
         <v>2018</v>
       </c>
       <c r="D137" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F137" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H137" t="s">
         <v>20</v>
       </c>
       <c r="I137" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J137" t="s">
         <v>19</v>
@@ -5615,22 +5618,22 @@
         <v>2018</v>
       </c>
       <c r="D138" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F138" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H138" t="s">
         <v>20</v>
       </c>
       <c r="I138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
@@ -5650,22 +5653,22 @@
         <v>2018</v>
       </c>
       <c r="D139" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H139" t="s">
         <v>20</v>
       </c>
       <c r="I139" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J139" t="s">
         <v>19</v>
@@ -5685,22 +5688,22 @@
         <v>2018</v>
       </c>
       <c r="D140" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F140" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
       </c>
       <c r="I140" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
@@ -5720,22 +5723,22 @@
         <v>2018</v>
       </c>
       <c r="D141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F141" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H141" t="s">
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J141" t="s">
         <v>19</v>
@@ -5755,22 +5758,22 @@
         <v>2018</v>
       </c>
       <c r="D142" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H142" t="s">
         <v>20</v>
       </c>
       <c r="I142" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
@@ -5790,22 +5793,22 @@
         <v>2018</v>
       </c>
       <c r="D143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E143" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F143" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H143" t="s">
         <v>20</v>
       </c>
       <c r="I143" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
@@ -5825,22 +5828,22 @@
         <v>2018</v>
       </c>
       <c r="D144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E144" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F144" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H144" t="s">
         <v>20</v>
       </c>
       <c r="I144" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J144" t="s">
         <v>19</v>
@@ -5860,22 +5863,22 @@
         <v>2018</v>
       </c>
       <c r="D145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F145" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H145" t="s">
         <v>20</v>
       </c>
       <c r="I145" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J145" t="s">
         <v>19</v>
@@ -5895,22 +5898,22 @@
         <v>2018</v>
       </c>
       <c r="D146" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E146" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F146" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H146" t="s">
         <v>20</v>
       </c>
       <c r="I146" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
@@ -5930,22 +5933,22 @@
         <v>2018</v>
       </c>
       <c r="D147" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F147" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H147" t="s">
         <v>20</v>
       </c>
       <c r="I147" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J147" t="s">
         <v>19</v>
@@ -5965,22 +5968,22 @@
         <v>2018</v>
       </c>
       <c r="D148" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" t="s">
+        <v>86</v>
+      </c>
+      <c r="G148" t="s">
+        <v>49</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
         <v>99</v>
-      </c>
-      <c r="E148" t="s">
-        <v>100</v>
-      </c>
-      <c r="F148" t="s">
-        <v>85</v>
-      </c>
-      <c r="G148" t="s">
-        <v>48</v>
-      </c>
-      <c r="H148" t="s">
-        <v>20</v>
-      </c>
-      <c r="I148" t="s">
-        <v>98</v>
       </c>
       <c r="J148" t="s">
         <v>19</v>
@@ -6000,22 +6003,22 @@
         <v>2018</v>
       </c>
       <c r="D149" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E149" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F149" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
       </c>
       <c r="I149" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J149" t="s">
         <v>19</v>
@@ -6035,22 +6038,22 @@
         <v>2018</v>
       </c>
       <c r="D150" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E150" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F150" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J150" t="s">
         <v>19</v>
@@ -6070,22 +6073,22 @@
         <v>2018</v>
       </c>
       <c r="D151" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E151" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
       </c>
       <c r="I151" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J151" t="s">
         <v>19</v>
@@ -6105,22 +6108,22 @@
         <v>2018</v>
       </c>
       <c r="D152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F152" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H152" t="s">
         <v>17</v>
       </c>
       <c r="I152" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J152" t="s">
         <v>19</v>
@@ -6140,22 +6143,22 @@
         <v>2018</v>
       </c>
       <c r="D153" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E153" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H153" t="s">
         <v>17</v>
       </c>
       <c r="I153" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J153" t="s">
         <v>19</v>
@@ -6175,22 +6178,22 @@
         <v>2018</v>
       </c>
       <c r="D154" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E154" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F154" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H154" t="s">
         <v>17</v>
       </c>
       <c r="I154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J154" t="s">
         <v>19</v>
@@ -6210,22 +6213,22 @@
         <v>2018</v>
       </c>
       <c r="D155" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F155" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H155" t="s">
         <v>17</v>
       </c>
       <c r="I155" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J155" t="s">
         <v>19</v>
@@ -6245,22 +6248,22 @@
         <v>2018</v>
       </c>
       <c r="D156" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E156" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F156" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H156" t="s">
         <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J156" t="s">
         <v>19</v>
@@ -6280,22 +6283,22 @@
         <v>2018</v>
       </c>
       <c r="D157" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F157" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H157" t="s">
         <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J157" t="s">
         <v>19</v>
@@ -6315,22 +6318,22 @@
         <v>2018</v>
       </c>
       <c r="D158" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E158" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F158" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H158" t="s">
         <v>17</v>
       </c>
       <c r="I158" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J158" t="s">
         <v>19</v>
@@ -6350,22 +6353,22 @@
         <v>2018</v>
       </c>
       <c r="D159" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E159" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F159" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H159" t="s">
         <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J159" t="s">
         <v>19</v>
@@ -6385,22 +6388,22 @@
         <v>2018</v>
       </c>
       <c r="D160" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F160" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H160" t="s">
         <v>23</v>
       </c>
       <c r="I160" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J160" t="s">
         <v>19</v>
@@ -6420,22 +6423,22 @@
         <v>2018</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E161" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F161" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H161" t="s">
         <v>23</v>
       </c>
       <c r="I161" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J161" t="s">
         <v>19</v>
@@ -6455,22 +6458,22 @@
         <v>2018</v>
       </c>
       <c r="D162" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E162" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F162" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H162" t="s">
         <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J162" t="s">
         <v>19</v>
@@ -6490,22 +6493,22 @@
         <v>2018</v>
       </c>
       <c r="D163" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E163" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F163" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H163" t="s">
         <v>23</v>
       </c>
       <c r="I163" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J163" t="s">
         <v>19</v>
@@ -6525,22 +6528,22 @@
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E164" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H164" t="s">
         <v>17</v>
       </c>
       <c r="I164" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J164" t="s">
         <v>19</v>
@@ -6560,22 +6563,22 @@
         <v>2018</v>
       </c>
       <c r="D165" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H165" t="s">
         <v>17</v>
       </c>
       <c r="I165" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J165" t="s">
         <v>19</v>
@@ -6595,22 +6598,22 @@
         <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E166" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F166" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H166" t="s">
         <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J166" t="s">
         <v>19</v>
@@ -6630,22 +6633,22 @@
         <v>2018</v>
       </c>
       <c r="D167" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E167" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F167" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H167" t="s">
         <v>17</v>
       </c>
       <c r="I167" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J167" t="s">
         <v>19</v>
@@ -6665,22 +6668,22 @@
         <v>2018</v>
       </c>
       <c r="D168" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E168" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F168" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H168" t="s">
         <v>17</v>
       </c>
       <c r="I168" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J168" t="s">
         <v>19</v>
@@ -6700,22 +6703,22 @@
         <v>2018</v>
       </c>
       <c r="D169" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E169" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F169" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H169" t="s">
         <v>17</v>
       </c>
       <c r="I169" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J169" t="s">
         <v>19</v>
@@ -6735,22 +6738,22 @@
         <v>2018</v>
       </c>
       <c r="D170" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E170" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H170" t="s">
         <v>17</v>
       </c>
       <c r="I170" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J170" t="s">
         <v>19</v>
@@ -6770,22 +6773,22 @@
         <v>2018</v>
       </c>
       <c r="D171" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E171" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F171" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H171" t="s">
         <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J171" t="s">
         <v>19</v>
@@ -6805,22 +6808,22 @@
         <v>2018</v>
       </c>
       <c r="D172" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E172" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F172" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H172" t="s">
         <v>20</v>
       </c>
       <c r="I172" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J172" t="s">
         <v>19</v>
@@ -6840,22 +6843,22 @@
         <v>2018</v>
       </c>
       <c r="D173" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E173" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F173" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H173" t="s">
         <v>20</v>
       </c>
       <c r="I173" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J173" t="s">
         <v>19</v>
@@ -6875,22 +6878,22 @@
         <v>2018</v>
       </c>
       <c r="D174" t="s">
+        <v>123</v>
+      </c>
+      <c r="E174" t="s">
+        <v>124</v>
+      </c>
+      <c r="F174" t="s">
+        <v>118</v>
+      </c>
+      <c r="G174" t="s">
+        <v>49</v>
+      </c>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" t="s">
         <v>122</v>
-      </c>
-      <c r="E174" t="s">
-        <v>123</v>
-      </c>
-      <c r="F174" t="s">
-        <v>117</v>
-      </c>
-      <c r="G174" t="s">
-        <v>48</v>
-      </c>
-      <c r="H174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I174" t="s">
-        <v>121</v>
       </c>
       <c r="J174" t="s">
         <v>19</v>
@@ -6910,22 +6913,22 @@
         <v>2018</v>
       </c>
       <c r="D175" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E175" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F175" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H175" t="s">
         <v>17</v>
       </c>
       <c r="I175" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J175" t="s">
         <v>19</v>
@@ -6945,22 +6948,22 @@
         <v>2018</v>
       </c>
       <c r="D176" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E176" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F176" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H176" t="s">
         <v>20</v>
       </c>
       <c r="I176" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J176" t="s">
         <v>19</v>
@@ -6980,22 +6983,22 @@
         <v>2018</v>
       </c>
       <c r="D177" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E177" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F177" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H177" t="s">
         <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J177" t="s">
         <v>19</v>
@@ -7015,22 +7018,22 @@
         <v>2018</v>
       </c>
       <c r="D178" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E178" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F178" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H178" t="s">
         <v>20</v>
       </c>
       <c r="I178" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J178" t="s">
         <v>19</v>
@@ -7050,22 +7053,22 @@
         <v>2018</v>
       </c>
       <c r="D179" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E179" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F179" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H179" t="s">
         <v>20</v>
       </c>
       <c r="I179" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J179" t="s">
         <v>19</v>
@@ -7085,22 +7088,22 @@
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E180" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F180" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J180" t="s">
         <v>19</v>
@@ -7120,22 +7123,22 @@
         <v>2018</v>
       </c>
       <c r="D181" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E181" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F181" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H181" t="s">
         <v>20</v>
       </c>
       <c r="I181" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J181" t="s">
         <v>19</v>
@@ -7155,22 +7158,22 @@
         <v>2018</v>
       </c>
       <c r="D182" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E182" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F182" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H182" t="s">
         <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J182" t="s">
         <v>19</v>
@@ -7190,22 +7193,22 @@
         <v>2018</v>
       </c>
       <c r="D183" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E183" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F183" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H183" t="s">
         <v>20</v>
       </c>
       <c r="I183" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J183" t="s">
         <v>19</v>
@@ -7225,22 +7228,22 @@
         <v>2018</v>
       </c>
       <c r="D184" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E184" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F184" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H184" t="s">
         <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J184" t="s">
         <v>19</v>
@@ -7260,22 +7263,22 @@
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E185" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F185" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H185" t="s">
         <v>20</v>
       </c>
       <c r="I185" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J185" t="s">
         <v>19</v>
@@ -7295,22 +7298,22 @@
         <v>2018</v>
       </c>
       <c r="D186" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E186" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F186" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H186" t="s">
         <v>20</v>
       </c>
       <c r="I186" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J186" t="s">
         <v>19</v>
@@ -7330,22 +7333,22 @@
         <v>2018</v>
       </c>
       <c r="D187" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E187" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F187" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H187" t="s">
         <v>20</v>
       </c>
       <c r="I187" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J187" t="s">
         <v>19</v>
@@ -7365,22 +7368,22 @@
         <v>2018</v>
       </c>
       <c r="D188" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E188" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F188" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H188" t="s">
         <v>20</v>
       </c>
       <c r="I188" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J188" t="s">
         <v>19</v>
@@ -7400,22 +7403,22 @@
         <v>2018</v>
       </c>
       <c r="D189" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E189" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F189" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H189" t="s">
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
@@ -7435,22 +7438,22 @@
         <v>2018</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E190" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F190" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H190" t="s">
         <v>17</v>
       </c>
       <c r="I190" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J190" t="s">
         <v>19</v>
@@ -7470,22 +7473,22 @@
         <v>2018</v>
       </c>
       <c r="D191" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E191" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F191" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H191" t="s">
         <v>20</v>
       </c>
       <c r="I191" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J191" t="s">
         <v>19</v>
@@ -7505,22 +7508,22 @@
         <v>2018</v>
       </c>
       <c r="D192" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E192" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F192" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H192" t="s">
         <v>20</v>
       </c>
       <c r="I192" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J192" t="s">
         <v>19</v>
@@ -7540,22 +7543,22 @@
         <v>2018</v>
       </c>
       <c r="D193" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E193" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F193" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H193" t="s">
         <v>20</v>
       </c>
       <c r="I193" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
@@ -7575,22 +7578,22 @@
         <v>2018</v>
       </c>
       <c r="D194" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E194" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F194" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H194" t="s">
         <v>20</v>
       </c>
       <c r="I194" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J194" t="s">
         <v>19</v>
@@ -7610,22 +7613,22 @@
         <v>2018</v>
       </c>
       <c r="D195" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E195" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F195" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H195" t="s">
         <v>20</v>
       </c>
       <c r="I195" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J195" t="s">
         <v>19</v>
@@ -7645,22 +7648,22 @@
         <v>2018</v>
       </c>
       <c r="D196" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E196" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F196" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H196" t="s">
         <v>20</v>
       </c>
       <c r="I196" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J196" t="s">
         <v>19</v>
@@ -7680,22 +7683,22 @@
         <v>2018</v>
       </c>
       <c r="D197" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E197" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F197" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H197" t="s">
         <v>20</v>
       </c>
       <c r="I197" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J197" t="s">
         <v>19</v>
@@ -7715,22 +7718,22 @@
         <v>2018</v>
       </c>
       <c r="D198" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E198" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F198" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H198" t="s">
         <v>20</v>
       </c>
       <c r="I198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J198" t="s">
         <v>19</v>
@@ -7748,22 +7751,22 @@
         <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E199" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F199" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H199" t="s">
         <v>17</v>
       </c>
       <c r="I199" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J199" t="s">
         <v>19</v>
@@ -7783,22 +7786,22 @@
         <v>2018</v>
       </c>
       <c r="D200" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E200" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F200" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H200" t="s">
         <v>17</v>
       </c>
       <c r="I200" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J200" t="s">
         <v>19</v>
@@ -7818,22 +7821,22 @@
         <v>2018</v>
       </c>
       <c r="D201" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E201" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F201" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H201" t="s">
         <v>17</v>
       </c>
       <c r="I201" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J201" t="s">
         <v>19</v>
@@ -7853,22 +7856,22 @@
         <v>2018</v>
       </c>
       <c r="D202" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E202" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F202" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H202" t="s">
         <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J202" t="s">
         <v>19</v>
@@ -7888,22 +7891,22 @@
         <v>2018</v>
       </c>
       <c r="D203" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E203" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F203" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H203" t="s">
         <v>20</v>
       </c>
       <c r="I203" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J203" t="s">
         <v>19</v>
